--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H2">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I2">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J2">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>11148.13120737816</v>
+        <v>11297.51843073401</v>
       </c>
       <c r="R2">
-        <v>11148.13120737816</v>
+        <v>101677.6658766061</v>
       </c>
       <c r="S2">
-        <v>0.1177277498675191</v>
+        <v>0.1171222821235278</v>
       </c>
       <c r="T2">
-        <v>0.1177277498675191</v>
+        <v>0.1171222821235278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H3">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I3">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J3">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>11866.53421474643</v>
+        <v>11908.0029251855</v>
       </c>
       <c r="R3">
-        <v>11866.53421474643</v>
+        <v>107172.0263266695</v>
       </c>
       <c r="S3">
-        <v>0.125314310160203</v>
+        <v>0.1234512239729762</v>
       </c>
       <c r="T3">
-        <v>0.125314310160203</v>
+        <v>0.1234512239729762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H4">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I4">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J4">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>7651.837648077519</v>
+        <v>7693.63091407139</v>
       </c>
       <c r="R4">
-        <v>7651.837648077519</v>
+        <v>69242.67822664251</v>
       </c>
       <c r="S4">
-        <v>0.08080579712441294</v>
+        <v>0.0797604904118417</v>
       </c>
       <c r="T4">
-        <v>0.08080579712441294</v>
+        <v>0.0797604904118417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H5">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I5">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J5">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>5933.070162651764</v>
+        <v>6000.839865877845</v>
       </c>
       <c r="R5">
-        <v>5933.070162651764</v>
+        <v>54007.5587929006</v>
       </c>
       <c r="S5">
-        <v>0.06265507528228846</v>
+        <v>0.06221118948011262</v>
       </c>
       <c r="T5">
-        <v>0.06265507528228846</v>
+        <v>0.06221118948011262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.7695655430103</v>
+        <v>69.00849933333333</v>
       </c>
       <c r="H6">
-        <v>68.7695655430103</v>
+        <v>207.025498</v>
       </c>
       <c r="I6">
-        <v>0.4279240828470165</v>
+        <v>0.4252801448282221</v>
       </c>
       <c r="J6">
-        <v>0.4279240828470165</v>
+        <v>0.425280144828222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>3922.341334815004</v>
+        <v>4122.178772265424</v>
       </c>
       <c r="R6">
-        <v>3922.341334815004</v>
+        <v>37099.60895038881</v>
       </c>
       <c r="S6">
-        <v>0.04142115041259292</v>
+        <v>0.04273495883976361</v>
       </c>
       <c r="T6">
-        <v>0.04142115041259292</v>
+        <v>0.04273495883976361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J7">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>2287.397979980752</v>
+        <v>2405.735346074433</v>
       </c>
       <c r="R7">
-        <v>2287.397979980752</v>
+        <v>21651.6181146699</v>
       </c>
       <c r="S7">
-        <v>0.02415563758851514</v>
+        <v>0.02494045180319888</v>
       </c>
       <c r="T7">
-        <v>0.02415563758851514</v>
+        <v>0.02494045180319888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J8">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>2434.80148262151</v>
+        <v>2535.734171527725</v>
       </c>
       <c r="R8">
-        <v>2434.80148262151</v>
+        <v>22821.60754374952</v>
       </c>
       <c r="S8">
-        <v>0.02571226464695901</v>
+        <v>0.02628816008124402</v>
       </c>
       <c r="T8">
-        <v>0.02571226464695901</v>
+        <v>0.02628816008124401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J9">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>1570.020809206957</v>
+        <v>1638.310213266008</v>
       </c>
       <c r="R9">
-        <v>1570.020809206957</v>
+        <v>14744.79191939408</v>
       </c>
       <c r="S9">
-        <v>0.0165799104508913</v>
+        <v>0.01698449373465919</v>
       </c>
       <c r="T9">
-        <v>0.0165799104508913</v>
+        <v>0.01698449373465919</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J10">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>1217.36033176142</v>
+        <v>1277.841028539658</v>
       </c>
       <c r="R10">
-        <v>1217.36033176142</v>
+        <v>11500.56925685692</v>
       </c>
       <c r="S10">
-        <v>0.01285570558600864</v>
+        <v>0.01324748070748818</v>
       </c>
       <c r="T10">
-        <v>0.01285570558600864</v>
+        <v>0.01324748070748817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.1102900908744</v>
+        <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>14.1102900908744</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012584</v>
       </c>
       <c r="J11">
-        <v>0.08780240064285945</v>
+        <v>0.09056072647012582</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>804.7945865682801</v>
+        <v>877.7919891060832</v>
       </c>
       <c r="R11">
-        <v>804.7945865682801</v>
+        <v>7900.127901954749</v>
       </c>
       <c r="S11">
-        <v>0.008498882370485364</v>
+        <v>0.009100140143535555</v>
       </c>
       <c r="T11">
-        <v>0.008498882370485364</v>
+        <v>0.009100140143535555</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H12">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J12">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>6985.51165183662</v>
+        <v>7074.623212853043</v>
       </c>
       <c r="R12">
-        <v>6985.51165183662</v>
+        <v>63671.60891567738</v>
       </c>
       <c r="S12">
-        <v>0.07376918634576003</v>
+        <v>0.07334318779240075</v>
       </c>
       <c r="T12">
-        <v>0.07376918634576003</v>
+        <v>0.07334318779240073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H13">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J13">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>7435.668945945627</v>
+        <v>7456.914934881486</v>
       </c>
       <c r="R13">
-        <v>7435.668945945627</v>
+        <v>67112.23441393337</v>
       </c>
       <c r="S13">
-        <v>0.0785229880669696</v>
+        <v>0.07730643681876198</v>
       </c>
       <c r="T13">
-        <v>0.0785229880669696</v>
+        <v>0.07730643681876197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H14">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J14">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>4794.705054532506</v>
+        <v>4817.831472418045</v>
       </c>
       <c r="R14">
-        <v>4794.705054532506</v>
+        <v>43360.4832517624</v>
       </c>
       <c r="S14">
-        <v>0.05063358394767996</v>
+        <v>0.04994684632698549</v>
       </c>
       <c r="T14">
-        <v>0.05063358394767996</v>
+        <v>0.04994684632698549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H15">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J15">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>3717.711065773807</v>
+        <v>3757.788161359529</v>
       </c>
       <c r="R15">
-        <v>3717.711065773807</v>
+        <v>33820.09345223576</v>
       </c>
       <c r="S15">
-        <v>0.03926019081489271</v>
+        <v>0.0389572920720262</v>
       </c>
       <c r="T15">
-        <v>0.03926019081489271</v>
+        <v>0.03895729207202618</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.0915812216584</v>
+        <v>43.213838</v>
       </c>
       <c r="H16">
-        <v>43.0915812216584</v>
+        <v>129.641514</v>
       </c>
       <c r="I16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="J16">
-        <v>0.2681407862199315</v>
+        <v>0.2663148374586689</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>2457.771673757911</v>
+        <v>2581.351100119807</v>
       </c>
       <c r="R16">
-        <v>2457.771673757911</v>
+        <v>23232.15990107826</v>
       </c>
       <c r="S16">
-        <v>0.02595483704462917</v>
+        <v>0.02676107444849445</v>
       </c>
       <c r="T16">
-        <v>0.02595483704462917</v>
+        <v>0.02676107444849444</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H17">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J17">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>5451.35270267264</v>
+        <v>5599.359287504657</v>
       </c>
       <c r="R17">
-        <v>5451.35270267264</v>
+        <v>50394.23358754191</v>
       </c>
       <c r="S17">
-        <v>0.05756798834544782</v>
+        <v>0.05804900803684795</v>
       </c>
       <c r="T17">
-        <v>0.05756798834544782</v>
+        <v>0.05804900803684793</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H18">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J18">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>5802.64639512876</v>
+        <v>5901.932108681497</v>
       </c>
       <c r="R18">
-        <v>5802.64639512876</v>
+        <v>53117.38897813348</v>
       </c>
       <c r="S18">
-        <v>0.06127775953365737</v>
+        <v>0.06118580480704656</v>
       </c>
       <c r="T18">
-        <v>0.06127775953365737</v>
+        <v>0.06118580480704654</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H19">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J19">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>3741.691326314212</v>
+        <v>3813.174014936276</v>
       </c>
       <c r="R19">
-        <v>3741.691326314212</v>
+        <v>34318.56613442649</v>
       </c>
       <c r="S19">
-        <v>0.03951342986116355</v>
+        <v>0.0395314816702145</v>
       </c>
       <c r="T19">
-        <v>0.03951342986116355</v>
+        <v>0.0395314816702145</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H20">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J20">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>2901.226893069968</v>
+        <v>2974.180448727821</v>
       </c>
       <c r="R20">
-        <v>2901.226893069968</v>
+        <v>26767.62403855039</v>
       </c>
       <c r="S20">
-        <v>0.03063786276126799</v>
+        <v>0.03083356789704732</v>
       </c>
       <c r="T20">
-        <v>0.03063786276126799</v>
+        <v>0.03083356789704732</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.6278027241374</v>
+        <v>34.20250066666667</v>
       </c>
       <c r="H21">
-        <v>33.6278027241374</v>
+        <v>102.607502</v>
       </c>
       <c r="I21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415859</v>
       </c>
       <c r="J21">
-        <v>0.2092516729640661</v>
+        <v>0.2107804774415858</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>1917.995549083339</v>
+        <v>2043.064601731242</v>
       </c>
       <c r="R21">
-        <v>1917.995549083339</v>
+        <v>18387.58141558118</v>
       </c>
       <c r="S21">
-        <v>0.02025463246252937</v>
+        <v>0.02118061503042955</v>
       </c>
       <c r="T21">
-        <v>0.02025463246252937</v>
+        <v>0.02118061503042954</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H22">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J22">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>179.2629417040153</v>
+        <v>187.6494061221555</v>
       </c>
       <c r="R22">
-        <v>179.2629417040153</v>
+        <v>1688.8446550994</v>
       </c>
       <c r="S22">
-        <v>0.001893072692531515</v>
+        <v>0.001945376484127907</v>
       </c>
       <c r="T22">
-        <v>0.001893072692531515</v>
+        <v>0.001945376484127907</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H23">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J23">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>190.8149259813994</v>
+        <v>197.78942523635</v>
       </c>
       <c r="R23">
-        <v>190.8149259813994</v>
+        <v>1780.10482712715</v>
       </c>
       <c r="S23">
-        <v>0.002015065257041458</v>
+        <v>0.002050498877750193</v>
       </c>
       <c r="T23">
-        <v>0.002015065257041458</v>
+        <v>0.002050498877750192</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H24">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J24">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>123.042230192634</v>
+        <v>127.7895920949389</v>
       </c>
       <c r="R24">
-        <v>123.042230192634</v>
+        <v>1150.10632885445</v>
       </c>
       <c r="S24">
-        <v>0.001299364407343287</v>
+        <v>0.001324804978151433</v>
       </c>
       <c r="T24">
-        <v>0.001299364407343287</v>
+        <v>0.001324804978151433</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H25">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J25">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>95.40429610205589</v>
+        <v>99.67268865017222</v>
       </c>
       <c r="R25">
-        <v>95.40429610205589</v>
+        <v>897.0541978515499</v>
       </c>
       <c r="S25">
-        <v>0.001007499185186848</v>
+        <v>0.001033314778964035</v>
       </c>
       <c r="T25">
-        <v>0.001007499185186848</v>
+        <v>0.001033314778964035</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.10582073260747</v>
+        <v>1.146216666666667</v>
       </c>
       <c r="H26">
-        <v>1.10582073260747</v>
+        <v>3.43865</v>
       </c>
       <c r="I26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397381</v>
       </c>
       <c r="J26">
-        <v>0.006881057326126499</v>
+        <v>0.007063813801397379</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>63.07159764865696</v>
+        <v>68.46852282538889</v>
       </c>
       <c r="R26">
-        <v>63.07159764865696</v>
+        <v>616.2167054284999</v>
       </c>
       <c r="S26">
-        <v>0.0006660557840233913</v>
+        <v>0.0007098186824038127</v>
       </c>
       <c r="T26">
-        <v>0.0006660557840233913</v>
+        <v>0.0007098186824038125</v>
       </c>
     </row>
   </sheetData>
